--- a/Interpolation_Data.xlsx
+++ b/Interpolation_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eimerno\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eimerno\Documents\Python Scripts\Interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86345313-A207-4897-8CE4-D3765EBE2BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5559EAD8-40C7-4AF5-A84A-ADC4935A227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F6BA69-E8AD-4704-B925-67DFBAC1D1A7}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Flow rate [ml/min]</t>
-  </si>
-  <si>
-    <t>Flow rate [m3/s]</t>
-  </si>
-  <si>
-    <t>Flow rate [s/m3]</t>
   </si>
   <si>
     <t>Particle Size [micron]</t>
@@ -202,8 +196,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -257,8 +251,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -312,8 +306,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -367,8 +361,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -422,8 +416,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -477,8 +471,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -532,8 +526,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -587,8 +581,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -642,8 +636,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -697,8 +691,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -752,8 +746,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -807,8 +801,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631793</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>98901</xdr:rowOff>
     </xdr:from>
@@ -1160,484 +1154,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C6958E-10E5-44AF-8C05-B206309019AF}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>A2*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C2">
-        <f>1/B2</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C2" s="5">
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>A3*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C3">
-        <f>1/B3</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="C3" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>A4*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C4">
-        <f>1/B4</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="C4" s="6">
         <v>1.744</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5">
-        <f>A5*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C5">
-        <f>1/B5</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="C5" s="6">
         <v>4.2149999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6">
-        <f>A6*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C6">
-        <f>1/B6</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="C6" s="6">
         <v>4.96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7">
-        <f>A7*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C7">
-        <f>1/B7</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D7">
         <v>24.6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="C7" s="6">
         <v>5.6040000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8">
-        <f>A8*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C8">
-        <f>1/B8</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D8">
         <v>50.2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="C8" s="6">
         <v>6.7350000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9">
-        <f>A9*0.0000000166666667</f>
-        <v>3.3333333400000002E-8</v>
-      </c>
-      <c r="C9">
-        <f>1/B9</f>
-        <v>29999999.939999998</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="7">
         <v>99.1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="C9" s="8">
         <v>8.5350000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10">
-        <f>A10*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C10">
-        <f>1/B10</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="C10" s="6">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>A11*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C11">
-        <f>1/B11</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="C11" s="6">
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>A12*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C12">
-        <f>1/B12</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="C12" s="6">
         <v>1.6779999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13">
-        <f>A13*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C13">
-        <f>1/B13</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="C13" s="6">
         <v>4.181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14">
-        <f>A14*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C14">
-        <f>1/B14</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14" s="6">
+      <c r="C14" s="6">
         <v>4.952</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15">
-        <f>A15*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C15">
-        <f>1/B15</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D15">
         <v>24.6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="C15" s="6">
         <v>5.6260000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16">
-        <f>A16*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C16">
-        <f>1/B16</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D16">
         <v>50.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="C16" s="6">
         <v>6.7450000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17">
-        <f>A17*0.0000000166666667</f>
-        <v>1.66666667E-7</v>
-      </c>
-      <c r="C17">
-        <f>1/B17</f>
-        <v>5999999.9879999999</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="7">
         <v>99.1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="C17" s="8">
         <v>8.5670000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <f>A18*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C18">
-        <f>1/B18</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="C18" s="6">
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <f>A19*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C19">
-        <f>1/B19</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="C19" s="6">
         <v>0.379</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <f>A20*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C20">
-        <f>1/B20</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="C20" s="6">
         <v>1.226</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <f>A21*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C21">
-        <f>1/B21</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D21">
         <v>10</v>
       </c>
-      <c r="E21" s="6">
+      <c r="C21" s="6">
         <v>2.8620000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <f>A22*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C22">
-        <f>1/B22</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" s="6">
+      <c r="C22" s="6">
         <v>3.78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <f>A23*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C23">
-        <f>1/B23</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D23">
         <v>24.6</v>
       </c>
-      <c r="E23" s="6">
+      <c r="C23" s="6">
         <v>5.109</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <f>A24*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C24">
-        <f>1/B24</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D24">
         <v>50.2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="C24" s="6">
         <v>6.7329999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <f>A25*0.0000000166666667</f>
-        <v>5.8333333450000005E-7</v>
-      </c>
-      <c r="C25">
-        <f>1/B25</f>
-        <v>1714285.7108571427</v>
-      </c>
-      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7">
         <v>99.1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="C25" s="8">
         <v>8.4540000000000006</v>
       </c>
     </row>
